--- a/06-30-24 to 07-06-24 Milwaukee Schedule Copy.xlsx
+++ b/06-30-24 to 07-06-24 Milwaukee Schedule Copy.xlsx
@@ -505,7 +505,11 @@
     </row>
     <row r="3">
       <c r="A3" t="inlineStr"/>
-      <c r="B3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>This week is a slower week due to 4th of July.  After this week,</t>
+        </is>
+      </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
@@ -534,7 +538,7 @@
       <c r="A4" t="inlineStr"/>
       <c r="B4" t="inlineStr">
         <is>
-          <t>This week is a slower week due to 4th of July.  After this week,</t>
+          <t>we will stay consistently busy up until Thanksgiving week.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -544,16 +548,40 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katherine </t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Bags 5-7</t>
+        </is>
+      </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lashaun </t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Bag 4, SB 11</t>
+        </is>
+      </c>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kim </t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Bag 8, SB 11</t>
+        </is>
+      </c>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr"/>
@@ -569,10 +597,14 @@
       <c r="A5" t="inlineStr"/>
       <c r="B5" t="inlineStr">
         <is>
-          <t>we will stay consistently busy up until Thanksgiving week.</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Bags 5,6</t>
+        </is>
+      </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
@@ -604,10 +636,14 @@
       <c r="A6" t="inlineStr"/>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Bags 7,8</t>
+        </is>
+      </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
@@ -639,10 +675,14 @@
       <c r="A7" t="inlineStr"/>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr"/>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Bags 1,2</t>
+        </is>
+      </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
@@ -672,11 +712,7 @@
     </row>
     <row r="8">
       <c r="A8" t="inlineStr"/>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>DJ</t>
-        </is>
-      </c>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">

--- a/06-30-24 to 07-06-24 Milwaukee Schedule Copy.xlsx
+++ b/06-30-24 to 07-06-24 Milwaukee Schedule Copy.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y60"/>
+  <dimension ref="A1:Y61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1293,7 +1293,11 @@
       </c>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Sarah and Carlie start at WI Ave, everyone else to Spring St</t>
+        </is>
+      </c>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
@@ -1327,21 +1331,9 @@
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>Optima available, Equip</t>
-        </is>
-      </c>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr">
@@ -1376,15 +1368,19 @@
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr"/>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr">
@@ -1423,15 +1419,20 @@
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr"/>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>@ Store
+(WI Ave)</t>
+        </is>
+      </c>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr">
@@ -1470,15 +1471,20 @@
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr"/>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Driver,
+Altima</t>
+        </is>
+      </c>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr">
@@ -1513,19 +1519,15 @@
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Ashley P</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1568,12 +1570,12 @@
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -1631,12 +1633,12 @@
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -1682,17 +1684,17 @@
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>@ Store (comp)</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="H28" t="inlineStr"/>
@@ -1731,9 +1733,22 @@
         </is>
       </c>
       <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr"/>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>8)</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>@ Store (comp)
+(WI Ave)</t>
+        </is>
+      </c>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1818,11 +1833,7 @@
       </c>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>4:45 AM MEET AT OFFICE</t>
-        </is>
-      </c>
+      <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
@@ -1863,7 +1874,7 @@
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>4:45 AM MEET AT OFFICE</t>
         </is>
       </c>
       <c r="G32" t="inlineStr"/>
@@ -1906,7 +1917,7 @@
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr">
         <is>
-          <t>EXCEL FINANCIAL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="G33" t="inlineStr"/>
@@ -1941,7 +1952,7 @@
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr">
         <is>
-          <t>PETRO CENTER 7, SHEBOYGAN FALLS</t>
+          <t>EXCEL FINANCIAL</t>
         </is>
       </c>
       <c r="G34" t="inlineStr"/>
@@ -1976,7 +1987,7 @@
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr">
         <is>
-          <t>1010 FOND DU LAC</t>
+          <t>PETRO CENTER 7, SHEBOYGAN FALLS</t>
         </is>
       </c>
       <c r="G35" t="inlineStr"/>
@@ -2011,7 +2022,7 @@
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/9Esv9J9vPEnzCsg96</t>
+          <t>1010 FOND DU LAC</t>
         </is>
       </c>
       <c r="G36" t="inlineStr"/>
@@ -2056,7 +2067,11 @@
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr"/>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/9Esv9J9vPEnzCsg96</t>
+        </is>
+      </c>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
@@ -2086,23 +2101,9 @@
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>Lashaun</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>Driver,
-Sante Fe,
-Equip</t>
-        </is>
-      </c>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -2133,15 +2134,21 @@
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Casey</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr"/>
+          <t>Lashaun</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Driver,
+Sante Fe,
+Equip</t>
+        </is>
+      </c>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr">
@@ -2174,8 +2181,16 @@
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr"/>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Casey</t>
+        </is>
+      </c>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
@@ -2245,11 +2260,7 @@
       </c>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>7:00 AM START</t>
-        </is>
-      </c>
+      <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
@@ -2286,7 +2297,7 @@
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr">
         <is>
-          <t>EXCEL FINANCIAL</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="G43" t="inlineStr"/>
@@ -2317,19 +2328,15 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Anisha</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Stephanie</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr">
         <is>
-          <t>RAPID MART HARTFORD</t>
+          <t>EXCEL FINANCIAL</t>
         </is>
       </c>
       <c r="G44" t="inlineStr"/>
@@ -2360,7 +2367,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Anisha</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2372,7 +2379,7 @@
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2712 E SUMNER ST</t>
+          <t>RAPID MART HARTFORD</t>
         </is>
       </c>
       <c r="G45" t="inlineStr"/>
@@ -2403,7 +2410,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Taylor</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2415,7 +2422,7 @@
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/5dpExsTUAgz</t>
+          <t>2712 E SUMNER ST</t>
         </is>
       </c>
       <c r="G46" t="inlineStr"/>
@@ -2439,12 +2446,28 @@
       <c r="Y46" t="inlineStr"/>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr"/>
-      <c r="B47" t="inlineStr"/>
-      <c r="C47" t="inlineStr"/>
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Taylor</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr"/>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/5dpExsTUAgz</t>
+        </is>
+      </c>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
@@ -2470,21 +2493,9 @@
       <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>Gold Camry available, Equip</t>
-        </is>
-      </c>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2506,24 +2517,24 @@
     </row>
     <row r="49">
       <c r="A49" t="inlineStr"/>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>5:00 AM START</t>
-        </is>
-      </c>
+      <c r="B49" t="inlineStr"/>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Paul</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr"/>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Gold Camry available, Equip</t>
+        </is>
+      </c>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2547,13 +2558,21 @@
       <c r="A50" t="inlineStr"/>
       <c r="B50" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>5:00 AM START</t>
         </is>
       </c>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr"/>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Paul</t>
+        </is>
+      </c>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
@@ -2578,7 +2597,7 @@
       <c r="A51" t="inlineStr"/>
       <c r="B51" t="inlineStr">
         <is>
-          <t>OUTPOST NATURAL FOODS, WAUWATOSA</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="C51" t="inlineStr"/>
@@ -2609,7 +2628,7 @@
       <c r="A52" t="inlineStr"/>
       <c r="B52" t="inlineStr">
         <is>
-          <t>7000 W STATE ST</t>
+          <t>OUTPOST NATURAL FOODS, WAUWATOSA</t>
         </is>
       </c>
       <c r="C52" t="inlineStr"/>
@@ -2640,7 +2659,7 @@
       <c r="A53" t="inlineStr"/>
       <c r="B53" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/9Apjjj8M6672</t>
+          <t>7000 W STATE ST</t>
         </is>
       </c>
       <c r="C53" t="inlineStr"/>
@@ -2669,7 +2688,11 @@
     </row>
     <row r="54">
       <c r="A54" t="inlineStr"/>
-      <c r="B54" t="inlineStr"/>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/9Apjjj8M6672</t>
+        </is>
+      </c>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr"/>
@@ -2695,21 +2718,9 @@
       <c r="Y54" t="inlineStr"/>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="A55" t="inlineStr"/>
+      <c r="B55" t="inlineStr"/>
+      <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr"/>
@@ -2736,15 +2747,19 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Casey</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr"/>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr"/>
@@ -2771,12 +2786,12 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Curt</t>
+          <t>Casey</t>
         </is>
       </c>
       <c r="C57" t="inlineStr"/>
@@ -2806,12 +2821,12 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Curt</t>
         </is>
       </c>
       <c r="C58" t="inlineStr"/>
@@ -2841,19 +2856,15 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Jerry S</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>@ Store, Until 10:15</t>
-        </is>
-      </c>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr"/>
@@ -2880,12 +2891,12 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Marcia</t>
+          <t>Jerry S</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2916,6 +2927,45 @@
       <c r="X60" t="inlineStr"/>
       <c r="Y60" t="inlineStr"/>
     </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Marcia</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>@ Store, Until 10:15</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="inlineStr"/>
+      <c r="O61" t="inlineStr"/>
+      <c r="P61" t="inlineStr"/>
+      <c r="Q61" t="inlineStr"/>
+      <c r="R61" t="inlineStr"/>
+      <c r="S61" t="inlineStr"/>
+      <c r="T61" t="inlineStr"/>
+      <c r="U61" t="inlineStr"/>
+      <c r="V61" t="inlineStr"/>
+      <c r="W61" t="inlineStr"/>
+      <c r="X61" t="inlineStr"/>
+      <c r="Y61" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/06-30-24 to 07-06-24 Milwaukee Schedule Copy.xlsx
+++ b/06-30-24 to 07-06-24 Milwaukee Schedule Copy.xlsx
@@ -2034,8 +2034,16 @@
       </c>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Lashaun</t>
+        </is>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr"/>
@@ -2111,11 +2119,7 @@
       </c>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>Office</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr"/>
@@ -2156,7 +2160,7 @@
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Office</t>
         </is>
       </c>
       <c r="K40" t="inlineStr"/>
@@ -2185,7 +2189,11 @@
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr"/>

--- a/06-30-24 to 07-06-24 Milwaukee Schedule Copy.xlsx
+++ b/06-30-24 to 07-06-24 Milwaukee Schedule Copy.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y61"/>
+  <dimension ref="A1:Y62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2044,7 +2044,11 @@
           <t>Lashaun</t>
         </is>
       </c>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>Check In After Store</t>
+        </is>
+      </c>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr"/>
@@ -2934,6 +2938,45 @@
       <c r="X61" t="inlineStr"/>
       <c r="Y61" t="inlineStr"/>
     </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>7)</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Lashaun</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>After Store</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="inlineStr"/>
+      <c r="O62" t="inlineStr"/>
+      <c r="P62" t="inlineStr"/>
+      <c r="Q62" t="inlineStr"/>
+      <c r="R62" t="inlineStr"/>
+      <c r="S62" t="inlineStr"/>
+      <c r="T62" t="inlineStr"/>
+      <c r="U62" t="inlineStr"/>
+      <c r="V62" t="inlineStr"/>
+      <c r="W62" t="inlineStr"/>
+      <c r="X62" t="inlineStr"/>
+      <c r="Y62" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/06-30-24 to 07-06-24 Milwaukee Schedule Copy.xlsx
+++ b/06-30-24 to 07-06-24 Milwaukee Schedule Copy.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y61"/>
+  <dimension ref="A1:Y62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1260,7 +1260,7 @@
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr">
         <is>
-          <t xml:space="preserve">7:00 AM START </t>
+          <t>Office</t>
         </is>
       </c>
       <c r="O19" t="inlineStr"/>
@@ -1311,7 +1311,7 @@
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr">
         <is>
-          <t>EXCEL FINANCIAL</t>
+          <t>Lashaun</t>
         </is>
       </c>
       <c r="O20" t="inlineStr"/>
@@ -1344,11 +1344,7 @@
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr"/>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>DARIEN CORNER MART</t>
-        </is>
-      </c>
+      <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr"/>
@@ -1391,11 +1387,7 @@
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr"/>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>101 W. BELOIT ST</t>
-        </is>
-      </c>
+      <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr"/>
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr"/>
@@ -1443,11 +1435,7 @@
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr"/>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/Gx2Xk97tzdZtteHR8</t>
-        </is>
-      </c>
+      <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr"/>
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr"/>
@@ -1533,21 +1521,9 @@
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
+      <c r="O25" t="inlineStr"/>
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr"/>
@@ -1600,16 +1576,8 @@
         </is>
       </c>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>Ian</t>
-        </is>
-      </c>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr"/>
       <c r="P26" t="inlineStr"/>
       <c r="Q26" t="inlineStr"/>
@@ -1755,11 +1723,7 @@
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr"/>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t>Office</t>
-        </is>
-      </c>
+      <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr"/>
       <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr"/>
@@ -1798,11 +1762,7 @@
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr"/>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>Lashaun</t>
-        </is>
-      </c>
+      <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr"/>
@@ -2074,9 +2034,21 @@
       </c>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Lashaun</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>Check In After Store</t>
+        </is>
+      </c>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr"/>
@@ -2151,11 +2123,7 @@
       </c>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>Office</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr"/>
@@ -2196,7 +2164,7 @@
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Office</t>
         </is>
       </c>
       <c r="K40" t="inlineStr"/>
@@ -2225,7 +2193,11 @@
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr"/>
@@ -2966,6 +2938,45 @@
       <c r="X61" t="inlineStr"/>
       <c r="Y61" t="inlineStr"/>
     </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>7)</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Lashaun</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>After Store</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="inlineStr"/>
+      <c r="O62" t="inlineStr"/>
+      <c r="P62" t="inlineStr"/>
+      <c r="Q62" t="inlineStr"/>
+      <c r="R62" t="inlineStr"/>
+      <c r="S62" t="inlineStr"/>
+      <c r="T62" t="inlineStr"/>
+      <c r="U62" t="inlineStr"/>
+      <c r="V62" t="inlineStr"/>
+      <c r="W62" t="inlineStr"/>
+      <c r="X62" t="inlineStr"/>
+      <c r="Y62" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/06-30-24 to 07-06-24 Milwaukee Schedule Copy.xlsx
+++ b/06-30-24 to 07-06-24 Milwaukee Schedule Copy.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y62"/>
+  <dimension ref="A1:Y61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2034,21 +2034,9 @@
       </c>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>#</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>Lashaun</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>Check In After Store</t>
-        </is>
-      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr"/>
@@ -2123,7 +2111,11 @@
       </c>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>Office</t>
+        </is>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr"/>
@@ -2164,7 +2156,7 @@
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Office</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="K40" t="inlineStr"/>
@@ -2193,11 +2185,7 @@
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr"/>
@@ -2938,45 +2926,6 @@
       <c r="X61" t="inlineStr"/>
       <c r="Y61" t="inlineStr"/>
     </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>7)</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>Lashaun</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>After Store</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr"/>
-      <c r="E62" t="inlineStr"/>
-      <c r="F62" t="inlineStr"/>
-      <c r="G62" t="inlineStr"/>
-      <c r="H62" t="inlineStr"/>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
-      <c r="N62" t="inlineStr"/>
-      <c r="O62" t="inlineStr"/>
-      <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr"/>
-      <c r="S62" t="inlineStr"/>
-      <c r="T62" t="inlineStr"/>
-      <c r="U62" t="inlineStr"/>
-      <c r="V62" t="inlineStr"/>
-      <c r="W62" t="inlineStr"/>
-      <c r="X62" t="inlineStr"/>
-      <c r="Y62" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/06-30-24 to 07-06-24 Milwaukee Schedule Copy.xlsx
+++ b/06-30-24 to 07-06-24 Milwaukee Schedule Copy.xlsx
@@ -2034,16 +2034,8 @@
       </c>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>#</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>Lashaun</t>
-        </is>
-      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr"/>

--- a/06-30-24 to 07-06-24 Milwaukee Schedule Copy.xlsx
+++ b/06-30-24 to 07-06-24 Milwaukee Schedule Copy.xlsx
@@ -720,11 +720,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2 AT ST LUKES, 6 AT ST MARY'S (NEED MINI POST IT NOTES)</t>
-        </is>
-      </c>
+      <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
@@ -1019,7 +1015,7 @@
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
-          <t xml:space="preserve">DC5-ITEM LEVEL </t>
+          <t>2 AT ST LUKES, 6 AT ST MARY'S (NEED MINI POST IT NOTES)</t>
         </is>
       </c>
       <c r="G15" t="inlineStr"/>
@@ -1087,7 +1083,7 @@
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
-          <t>ASCENSION ALL SAINTS HOSP SPRING ST CAMPUS (0752-0001 &amp; 0002)</t>
+          <t>TO FOLLOW</t>
         </is>
       </c>
       <c r="G16" t="inlineStr"/>
@@ -1154,7 +1150,7 @@
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
-          <t>3801 SPRING ST</t>
+          <t xml:space="preserve">DC5-ITEM LEVEL </t>
         </is>
       </c>
       <c r="G17" t="inlineStr"/>
@@ -1205,7 +1201,7 @@
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/PjumoiJbqD62</t>
+          <t>ASCENSION ALL SAINTS HOSP SPRING ST CAMPUS (0752-0001 &amp; 0002)</t>
         </is>
       </c>
       <c r="G18" t="inlineStr"/>
@@ -1248,7 +1244,7 @@
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
-          <t>ENTER THRU SURGICAL CENTER</t>
+          <t>3801 SPRING ST</t>
         </is>
       </c>
       <c r="G19" t="inlineStr"/>
@@ -1295,7 +1291,7 @@
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Sarah and Carlie start at WI Ave, everyone else to Spring St</t>
+          <t>https://goo.gl/maps/PjumoiJbqD62</t>
         </is>
       </c>
       <c r="G20" t="inlineStr"/>
@@ -1332,7 +1328,11 @@
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>ENTER THRU SURGICAL CENTER</t>
+        </is>
+      </c>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
@@ -1362,21 +1362,13 @@
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+          <t>Sarah and Carlie start at WI Ave, everyone else to Spring St</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr">
@@ -1409,22 +1401,9 @@
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>@ Store
-(WI Ave)</t>
-        </is>
-      </c>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr">
@@ -1459,18 +1438,17 @@
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>DJ</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Driver,
-Altima</t>
+          <t>Equip</t>
         </is>
       </c>
       <c r="H24" t="inlineStr"/>
@@ -1507,15 +1485,20 @@
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr"/>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>@ Store
+(WI Ave)</t>
+        </is>
+      </c>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1546,17 +1529,18 @@
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Driver,
+Altima</t>
         </is>
       </c>
       <c r="H26" t="inlineStr"/>
@@ -1601,19 +1585,15 @@
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Eva</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr">
         <is>
@@ -1652,12 +1632,12 @@
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -1703,18 +1683,17 @@
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>@ Store (comp)
-(WI Ave)</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="H29" t="inlineStr"/>
@@ -1749,9 +1728,21 @@
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>7)</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Michael N</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr">
@@ -1792,9 +1783,22 @@
         </is>
       </c>
       <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>8)</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>@ Store (comp)
+(WI Ave)</t>
+        </is>
+      </c>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr">
@@ -1832,11 +1836,7 @@
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>4:45 AM MEET AT OFFICE</t>
-        </is>
-      </c>
+      <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
@@ -1875,11 +1875,7 @@
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
@@ -1912,7 +1908,7 @@
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr">
         <is>
-          <t>EXCEL FINANCIAL</t>
+          <t>4:45 AM MEET AT OFFICE</t>
         </is>
       </c>
       <c r="G34" t="inlineStr"/>
@@ -1947,7 +1943,7 @@
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr">
         <is>
-          <t>PETRO CENTER 7, SHEBOYGAN FALLS</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="G35" t="inlineStr"/>
@@ -1982,7 +1978,7 @@
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr">
         <is>
-          <t>1010 FOND DU LAC</t>
+          <t>EXCEL FINANCIAL</t>
         </is>
       </c>
       <c r="G36" t="inlineStr"/>
@@ -2029,7 +2025,7 @@
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/9Esv9J9vPEnzCsg96</t>
+          <t>PETRO CENTER 7, SHEBOYGAN FALLS</t>
         </is>
       </c>
       <c r="G37" t="inlineStr"/>
@@ -2062,7 +2058,11 @@
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr"/>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1010 FOND DU LAC</t>
+        </is>
+      </c>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
@@ -2092,26 +2092,20 @@
       </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Lashaun</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>Driver,
-Sante Fe,
-Equip</t>
-        </is>
-      </c>
+          <t>https://goo.gl/maps/9Esv9J9vPEnzCsg96</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>Office</t>
+        </is>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr"/>
@@ -2137,22 +2131,14 @@
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>Casey</t>
-        </is>
-      </c>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Office</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="K40" t="inlineStr"/>
@@ -2176,16 +2162,26 @@
       <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr"/>
-      <c r="G41" t="inlineStr"/>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Lashaun</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Driver,
+Sante Fe,
+Equip</t>
+        </is>
+      </c>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr"/>
@@ -2219,8 +2215,16 @@
         </is>
       </c>
       <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr"/>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Casey</t>
+        </is>
+      </c>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
@@ -2255,11 +2259,7 @@
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>7:00 AM START</t>
-        </is>
-      </c>
+      <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
@@ -2294,11 +2294,7 @@
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>EXCEL FINANCIAL</t>
-        </is>
-      </c>
+      <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
@@ -2339,7 +2335,7 @@
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr">
         <is>
-          <t>RAPID MART HARTFORD</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="G45" t="inlineStr"/>
@@ -2382,7 +2378,7 @@
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2712 E SUMNER ST</t>
+          <t>EXCEL FINANCIAL</t>
         </is>
       </c>
       <c r="G46" t="inlineStr"/>
@@ -2425,7 +2421,7 @@
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/5dpExsTUAgz</t>
+          <t>RAPID MART HARTFORD</t>
         </is>
       </c>
       <c r="G47" t="inlineStr"/>
@@ -2454,7 +2450,11 @@
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr"/>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2712 E SUMNER ST</t>
+        </is>
+      </c>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
@@ -2480,21 +2480,13 @@
       <c r="B49" t="inlineStr"/>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>Gold Camry available, Equip</t>
-        </is>
-      </c>
+          <t>https://goo.gl/maps/5dpExsTUAgz</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2523,16 +2515,8 @@
       </c>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Paul</t>
-        </is>
-      </c>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
@@ -2562,9 +2546,21 @@
       </c>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr"/>
-      <c r="G51" t="inlineStr"/>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Gold Camry available, Equip</t>
+        </is>
+      </c>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2593,8 +2589,16 @@
       </c>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr"/>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Paul</t>
+        </is>
+      </c>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>

--- a/06-30-24 to 07-06-24 Milwaukee Schedule Copy.xlsx
+++ b/06-30-24 to 07-06-24 Milwaukee Schedule Copy.xlsx
@@ -720,7 +720,11 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2 AT ST LUKES, 6 AT ST MARY'S (NEED MINI POST IT NOTES)</t>
+        </is>
+      </c>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
@@ -1015,7 +1019,7 @@
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2 AT ST LUKES, 6 AT ST MARY'S (NEED MINI POST IT NOTES)</t>
+          <t xml:space="preserve">DC5-ITEM LEVEL </t>
         </is>
       </c>
       <c r="G15" t="inlineStr"/>
@@ -1032,7 +1036,7 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Driver 1/2,
+          <t>Driver,
 Sante Fe, Equip</t>
         </is>
       </c>
@@ -1083,7 +1087,7 @@
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
-          <t>TO FOLLOW</t>
+          <t>ASCENSION ALL SAINTS HOSP SPRING ST CAMPUS (0752-0001 &amp; 0002)</t>
         </is>
       </c>
       <c r="G16" t="inlineStr"/>
@@ -1100,8 +1104,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>"Driver 1/2,
-Sante Fe, 1st Aurora</t>
+          <t>1st Aurora</t>
         </is>
       </c>
       <c r="L16" t="inlineStr"/>
@@ -1151,7 +1154,7 @@
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
-          <t xml:space="preserve">DC5-ITEM LEVEL </t>
+          <t>3801 SPRING ST</t>
         </is>
       </c>
       <c r="G17" t="inlineStr"/>
@@ -1202,7 +1205,7 @@
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
-          <t>ASCENSION ALL SAINTS HOSP SPRING ST CAMPUS (0752-0001 &amp; 0002)</t>
+          <t>https://goo.gl/maps/PjumoiJbqD62</t>
         </is>
       </c>
       <c r="G18" t="inlineStr"/>
@@ -1245,7 +1248,7 @@
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
-          <t>3801 SPRING ST</t>
+          <t>ENTER THRU SURGICAL CENTER</t>
         </is>
       </c>
       <c r="G19" t="inlineStr"/>
@@ -1292,7 +1295,7 @@
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/PjumoiJbqD62</t>
+          <t>Sarah and Carlie start at WI Ave, everyone else to Spring St</t>
         </is>
       </c>
       <c r="G20" t="inlineStr"/>
@@ -1329,11 +1332,7 @@
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>ENTER THRU SURGICAL CENTER</t>
-        </is>
-      </c>
+      <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
@@ -1363,13 +1362,21 @@
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Sarah and Carlie start at WI Ave, everyone else to Spring St</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr"/>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr">
@@ -1402,9 +1409,22 @@
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>@ Store
+(WI Ave)</t>
+        </is>
+      </c>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr">
@@ -1439,17 +1459,18 @@
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Equip</t>
+          <t>Driver,
+Altima</t>
         </is>
       </c>
       <c r="H24" t="inlineStr"/>
@@ -1486,20 +1507,15 @@
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>@ Store
-(WI Ave)</t>
-        </is>
-      </c>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1530,18 +1546,17 @@
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>DJ</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Driver,
-Altima</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="H26" t="inlineStr"/>
@@ -1586,15 +1601,19 @@
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr"/>
+          <t>Eva</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr">
         <is>
@@ -1633,12 +1652,12 @@
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -1684,17 +1703,18 @@
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store (comp)
+(WI Ave)</t>
         </is>
       </c>
       <c r="H29" t="inlineStr"/>
@@ -1729,21 +1749,9 @@
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>7)</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Michael N</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr">
@@ -1784,22 +1792,9 @@
         </is>
       </c>
       <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>8)</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>@ Store (comp)
-(WI Ave)</t>
-        </is>
-      </c>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr">
@@ -1837,7 +1832,11 @@
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4:45 AM MEET AT OFFICE</t>
+        </is>
+      </c>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
@@ -1876,7 +1875,11 @@
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
@@ -1909,7 +1912,7 @@
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr">
         <is>
-          <t>4:45 AM MEET AT OFFICE</t>
+          <t>EXCEL FINANCIAL</t>
         </is>
       </c>
       <c r="G34" t="inlineStr"/>
@@ -1944,7 +1947,7 @@
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>PETRO CENTER 7, SHEBOYGAN FALLS</t>
         </is>
       </c>
       <c r="G35" t="inlineStr"/>
@@ -1979,7 +1982,7 @@
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr">
         <is>
-          <t>EXCEL FINANCIAL</t>
+          <t>1010 FOND DU LAC</t>
         </is>
       </c>
       <c r="G36" t="inlineStr"/>
@@ -2026,7 +2029,7 @@
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr">
         <is>
-          <t>PETRO CENTER 7, SHEBOYGAN FALLS</t>
+          <t>https://goo.gl/maps/9Esv9J9vPEnzCsg96</t>
         </is>
       </c>
       <c r="G37" t="inlineStr"/>
@@ -2059,11 +2062,7 @@
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>1010 FOND DU LAC</t>
-        </is>
-      </c>
+      <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
@@ -2093,13 +2092,23 @@
       </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr"/>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/9Esv9J9vPEnzCsg96</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr"/>
+          <t>Lashaun</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Driver,
+Sante Fe,
+Equip</t>
+        </is>
+      </c>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr">
@@ -2132,8 +2141,16 @@
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr"/>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Casey</t>
+        </is>
+      </c>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
@@ -2163,23 +2180,9 @@
       <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>Lashaun</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>Driver,
-Sante Fe,
-Equip</t>
-        </is>
-      </c>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -2216,16 +2219,8 @@
         </is>
       </c>
       <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Casey</t>
-        </is>
-      </c>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
@@ -2260,7 +2255,11 @@
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr"/>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>7:00 AM START</t>
+        </is>
+      </c>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
@@ -2295,7 +2294,11 @@
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr"/>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>EXCEL FINANCIAL</t>
+        </is>
+      </c>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
@@ -2336,7 +2339,7 @@
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>RAPID MART HARTFORD</t>
         </is>
       </c>
       <c r="G45" t="inlineStr"/>
@@ -2379,7 +2382,7 @@
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr">
         <is>
-          <t>EXCEL FINANCIAL</t>
+          <t>2712 E SUMNER ST</t>
         </is>
       </c>
       <c r="G46" t="inlineStr"/>
@@ -2422,7 +2425,7 @@
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr">
         <is>
-          <t>RAPID MART HARTFORD</t>
+          <t>https://goo.gl/maps/5dpExsTUAgz</t>
         </is>
       </c>
       <c r="G47" t="inlineStr"/>
@@ -2451,11 +2454,7 @@
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>2712 E SUMNER ST</t>
-        </is>
-      </c>
+      <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
@@ -2481,13 +2480,21 @@
       <c r="B49" t="inlineStr"/>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr"/>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/5dpExsTUAgz</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr"/>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Gold Camry available, Equip</t>
+        </is>
+      </c>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2516,8 +2523,16 @@
       </c>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr"/>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Paul</t>
+        </is>
+      </c>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
@@ -2547,21 +2562,9 @@
       </c>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>Gold Camry available, Equip</t>
-        </is>
-      </c>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2590,16 +2593,8 @@
       </c>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>Paul</t>
-        </is>
-      </c>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
